--- a/stats/final_table_test.xlsx
+++ b/stats/final_table_test.xlsx
@@ -461,17 +461,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ndcg@5</t>
+          <t>ndcg@10</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recall@5</t>
+          <t>recall@10</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>mrr@5</t>
+          <t>mrr@10</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -481,12 +481,12 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>giniindex@10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>popularitypercentage@10</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>hit@10</t>
         </is>
       </c>
     </row>
@@ -563,32 +563,32 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.049</t>
+          <t>0.093</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3.169</t>
+          <t>3.167</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.867</t>
+          <t>0.756</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.084</t>
+          <t>0.089</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -608,22 +608,22 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.154</t>
+          <t>0.145</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.044</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.044</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.077</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.077</t>
+          <t>0.136</t>
         </is>
       </c>
     </row>
@@ -665,32 +665,32 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.071</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3.010</t>
+          <t>2.999</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.856</t>
+          <t>0.713</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.117</t>
+          <t>0.103</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -700,17 +700,17 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.296</t>
+          <t>0.297</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.181</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.197</t>
+          <t>0.194</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -725,17 +725,17 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>-0.144</t>
+          <t>-0.145</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>0.125</t>
         </is>
       </c>
     </row>
@@ -767,32 +767,32 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>0.033</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.073</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
           <t>0.027</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.036</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2.874</t>
+          <t>2.868</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0.827</t>
+          <t>0.666</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.065</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -812,22 +812,22 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>0.103</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0.005</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.057</t>
+          <t>0.102</t>
         </is>
       </c>
     </row>
@@ -869,32 +869,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.063</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3.455</t>
+          <t>3.439</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>0.885</t>
+          <t>0.783</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.148</t>
+          <t>0.134</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.140</t>
+          <t>0.134</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>0.072</t>
+          <t>0.129</t>
         </is>
       </c>
     </row>
@@ -971,77 +971,77 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.053</t>
+          <t>0.074</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.028</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3.371</t>
+          <t>3.372</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>0.900</t>
+          <t>0.821</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.129</t>
+          <t>0.114</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.468</t>
+          <t>0.499</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>0.439</t>
+          <t>0.459</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0.265</t>
+          <t>0.274</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.203</t>
+          <t>0.225</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>0.071</t>
+          <t>0.068</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>-0.141</t>
+          <t>-0.142</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.078</t>
+          <t>0.120</t>
         </is>
       </c>
     </row>
@@ -1073,52 +1073,52 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.065</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3.197</t>
+          <t>3.199</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>0.871</t>
+          <t>0.751</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.132</t>
+          <t>0.121</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>0.349</t>
+          <t>0.360</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0.274</t>
+          <t>0.280</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0.167</t>
+          <t>0.170</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>0.182</t>
+          <t>0.190</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1133,7 +1133,7 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.009</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.074</t>
+          <t>0.135</t>
         </is>
       </c>
     </row>
@@ -1175,17 +1175,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1195,12 +1195,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>0.823</t>
+          <t>0.674</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0.115</t>
+          <t>0.096</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>0.113</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.067</t>
+          <t>0.119</t>
         </is>
       </c>
     </row>
@@ -1277,17 +1277,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.059</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1297,32 +1297,32 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>0.864</t>
+          <t>0.755</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>0.103</t>
+          <t>0.106</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.396</t>
+          <t>0.374</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0.313</t>
+          <t>0.298</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>0.188</t>
+          <t>0.175</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.208</t>
+          <t>0.200</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.072</t>
+          <t>0.121</t>
         </is>
       </c>
     </row>
@@ -1379,32 +1379,32 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.042</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2.769</t>
+          <t>2.773</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0.819</t>
+          <t>0.673</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>0.034</t>
+          <t>0.054</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.093</t>
+          <t>0.109</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1444,12 +1444,12 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.108</t>
+          <t>-0.109</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.054</t>
+          <t>0.092</t>
         </is>
       </c>
     </row>
@@ -1481,32 +1481,32 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.086</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.358</t>
+          <t>3.329</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>0.841</t>
+          <t>0.675</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0.107</t>
+          <t>0.097</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1541,17 +1541,17 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.019</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>-0.174</t>
+          <t>-0.175</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.074</t>
+          <t>0.124</t>
         </is>
       </c>
     </row>
@@ -1583,32 +1583,32 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>3.216</t>
+          <t>3.199</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0.853</t>
+          <t>0.735</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0.106</t>
+          <t>0.089</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0.134</t>
+          <t>0.135</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.101</t>
         </is>
       </c>
     </row>
@@ -1685,32 +1685,32 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>0.036</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.084</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
           <t>0.024</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.034</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.023</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2.307</t>
+          <t>2.321</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0.796</t>
+          <t>0.619</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0.042</t>
+          <t>0.057</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1730,7 +1730,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.089</t>
+          <t>0.063</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.052</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1755,7 +1755,7 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.100</t>
         </is>
       </c>
     </row>
@@ -1787,32 +1787,32 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.044</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.096</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2.635</t>
+          <t>2.677</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>0.785</t>
+          <t>0.536</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0.056</t>
+          <t>0.073</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1832,32 +1832,32 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0.054</t>
+          <t>0.050</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0.012</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.028</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>-0.118</t>
+          <t>-0.116</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.049</t>
+          <t>0.111</t>
         </is>
       </c>
     </row>
@@ -1889,64 +1889,64 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.068</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2.629</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.672</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.067</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0.077</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
           <t>0.020</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>2.629</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.820</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0.055</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>0.104</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>0.020</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0.020</t>
-        </is>
-      </c>
       <c r="R15" t="inlineStr">
         <is>
           <t>0.033</t>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.090</t>
         </is>
       </c>
     </row>
@@ -1991,32 +1991,32 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>0.029</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.061</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>0.027</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.036</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2.950</t>
+          <t>2.945</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0.829</t>
+          <t>0.700</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0.081</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -2036,22 +2036,22 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0.104</t>
+          <t>0.106</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.034</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.101</t>
         </is>
       </c>
     </row>
@@ -2093,67 +2093,67 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>3.488</t>
+          <t>3.483</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>0.897</t>
+          <t>0.806</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>0.164</t>
+          <t>0.145</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.403</t>
+          <t>0.413</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>0.326</t>
+          <t>0.341</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0.194</t>
+          <t>0.201</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.208</t>
+          <t>0.212</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>0.145</t>
         </is>
       </c>
     </row>
@@ -2195,17 +2195,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.077</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0.844</t>
+          <t>0.709</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0.120</t>
+          <t>0.103</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -2240,7 +2240,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.100</t>
+          <t>0.104</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2265,7 +2265,7 @@
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.127</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2297,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.088</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2317,12 +2317,12 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0.857</t>
+          <t>0.737</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0.142</t>
+          <t>0.122</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0.155</t>
         </is>
       </c>
     </row>
@@ -2399,77 +2399,77 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.024</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
+          <t>0.056</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
           <t>0.031</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.029</t>
-        </is>
-      </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>3.153</t>
+          <t>3.152</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0.851</t>
+          <t>0.734</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
+          <t>0.089</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0.139</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0.012</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0.021</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>-0.098</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
           <t>0.104</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0.150</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0.012</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>0.012</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.022</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>-0.098</t>
-        </is>
-      </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.057</t>
         </is>
       </c>
     </row>
@@ -2501,69 +2501,69 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
+          <t>0.087</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0.023</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2.524</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.570</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.065</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0.048</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>0.009</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
           <t>0.032</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.017</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>2.517</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>0.761</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0.024</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>0.077</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>0.008</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>0.008</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.029</t>
-        </is>
-      </c>
       <c r="S21" t="inlineStr">
         <is>
           <t>-0.042</t>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.094</t>
         </is>
       </c>
     </row>
@@ -2603,69 +2603,69 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>0.039</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.085</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0.030</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2.926</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.626</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.060</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0.076</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
           <t>0.035</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.049</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0.036</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>2.945</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0.802</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0.065</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>0.078</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>0.026</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>0.026</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.040</t>
-        </is>
-      </c>
       <c r="S22" t="inlineStr">
         <is>
           <t>-0.083</t>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.063</t>
+          <t>0.107</t>
         </is>
       </c>
     </row>
@@ -2705,17 +2705,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.034</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2725,12 +2725,12 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.682</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0.050</t>
+          <t>0.063</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2750,32 +2750,32 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0.121</t>
+          <t>0.120</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.046</t>
+          <t>-0.045</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.063</t>
+          <t>0.106</t>
         </is>
       </c>
     </row>
@@ -2807,67 +2807,67 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.046</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.092</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0.061</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>3.637</t>
+          <t>3.647</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0.881</t>
+          <t>0.773</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0.208</t>
+          <t>0.150</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.450</t>
+          <t>0.458</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>0.394</t>
+          <t>0.389</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>0.231</t>
+          <t>0.235</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0.220</t>
+          <t>0.223</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.021</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.021</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -2877,7 +2877,7 @@
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.122</t>
+          <t>0.184</t>
         </is>
       </c>
     </row>
@@ -2909,77 +2909,77 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
+          <t>0.057</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
           <t>0.035</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.050</t>
-        </is>
-      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>3.275</t>
+          <t>3.280</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>0.780</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
+          <t>0.122</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0.465</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0.375</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0.241</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0.224</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>0.004</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0.021</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>-0.099</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
           <t>0.140</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>0.469</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>0.385</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0.235</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>0.234</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>0.005</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>0.005</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0.017</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>-0.098</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0.093</t>
         </is>
       </c>
     </row>
@@ -3011,32 +3011,32 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.017</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0.015</t>
+          <t>0.022</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2.421</t>
+          <t>2.420</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>0.779</t>
+          <t>0.593</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>0.062</t>
+          <t>0.054</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.050</t>
+          <t>0.049</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.075</t>
         </is>
       </c>
     </row>
@@ -3113,52 +3113,52 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.030</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.045</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>3.393</t>
+          <t>3.375</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0.879</t>
+          <t>0.777</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0.187</t>
+          <t>0.142</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>0.391</t>
+          <t>0.393</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>0.318</t>
+          <t>0.319</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>0.171</t>
+          <t>0.177</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>0.220</t>
+          <t>0.216</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.027</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>0.137</t>
         </is>
       </c>
     </row>
@@ -3215,32 +3215,32 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.032</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.085</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.026</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2.809</t>
+          <t>2.793</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>0.866</t>
+          <t>0.755</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.072</t>
+          <t>0.084</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -3260,22 +3260,22 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0.142</t>
+          <t>0.144</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.028</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>0.049</t>
+          <t>0.132</t>
         </is>
       </c>
     </row>
@@ -3317,52 +3317,52 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>3.096</t>
+          <t>3.095</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>0.873</t>
+          <t>0.739</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.158</t>
+          <t>0.124</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>0.350</t>
+          <t>0.352</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>0.282</t>
+          <t>0.278</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>0.162</t>
+          <t>0.167</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.189</t>
+          <t>0.185</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.024</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -3387,7 +3387,7 @@
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>0.150</t>
         </is>
       </c>
     </row>
@@ -3419,32 +3419,32 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>0.037</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.079</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>0.031</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.045</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>0.037</t>
-        </is>
-      </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>3.047</t>
+          <t>3.034</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>0.839</t>
+          <t>0.673</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0.076</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -3464,32 +3464,32 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>0.123</t>
+          <t>0.116</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>0.013</t>
+          <t>0.011</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.042</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.120</t>
+          <t>-0.121</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.076</t>
+          <t>0.115</t>
         </is>
       </c>
     </row>
@@ -3521,52 +3521,52 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3.089</t>
+          <t>3.091</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>0.879</t>
+          <t>0.778</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0.118</t>
+          <t>0.109</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>0.359</t>
+          <t>0.358</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>0.288</t>
+          <t>0.279</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0.168</t>
+          <t>0.165</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>0.192</t>
+          <t>0.194</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3591,7 +3591,7 @@
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>0.076</t>
+          <t>0.136</t>
         </is>
       </c>
     </row>
@@ -3623,69 +3623,69 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.090</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.028</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2.816</t>
+          <t>2.817</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>0.794</t>
+          <t>0.611</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
+          <t>0.062</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0.066</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
           <t>0.051</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0.057</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0.039</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>0.039</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>0.051</t>
-        </is>
-      </c>
       <c r="S32" t="inlineStr">
         <is>
           <t>-0.168</t>
@@ -3693,7 +3693,7 @@
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>0.055</t>
+          <t>0.107</t>
         </is>
       </c>
     </row>
@@ -3725,32 +3725,32 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.072</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.042</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>3.108</t>
+          <t>3.113</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0.864</t>
+          <t>0.749</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>0.164</t>
+          <t>0.126</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3760,17 +3760,17 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>0.284</t>
+          <t>0.289</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>0.168</t>
+          <t>0.162</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0.196</t>
+          <t>0.202</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>0.082</t>
+          <t>0.143</t>
         </is>
       </c>
     </row>
@@ -3827,32 +3827,32 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.032</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.061</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>3.122</t>
+          <t>3.121</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>0.841</t>
+          <t>0.695</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>0.063</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3872,7 +3872,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>0.107</t>
+          <t>0.103</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.039</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
@@ -3897,7 +3897,7 @@
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.052</t>
+          <t>0.094</t>
         </is>
       </c>
     </row>
@@ -3929,77 +3929,77 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.064</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>0.034</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>3.514</t>
+          <t>3.510</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0.881</t>
+          <t>0.778</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
+          <t>0.107</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0.438</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.369</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>0.227</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.211</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0.038</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>-0.153</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
           <t>0.127</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>0.430</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>0.352</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>0.215</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>0.215</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0.038</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>0.038</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>0.050</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>-0.152</t>
-        </is>
-      </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>0.072</t>
         </is>
       </c>
     </row>
@@ -4031,32 +4031,32 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.075</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>3.478</t>
+          <t>3.466</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>0.880</t>
+          <t>0.769</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>0.153</t>
+          <t>0.132</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -4076,32 +4076,32 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0.150</t>
+          <t>0.149</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.037</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-0.089</t>
+          <t>-0.088</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0.155</t>
         </is>
       </c>
     </row>
@@ -4133,32 +4133,32 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.032</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.063</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.032</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>3.078</t>
+          <t>3.079</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>0.852</t>
+          <t>0.726</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0.119</t>
+          <t>0.098</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -4178,7 +4178,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>0.138</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4193,7 +4193,7 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.033</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
@@ -4203,7 +4203,7 @@
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>0.079</t>
+          <t>0.122</t>
         </is>
       </c>
     </row>
@@ -4235,77 +4235,77 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.032</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
+          <t>0.034</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>3.512</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>0.766</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.130</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0.458</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.380</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0.236</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0.222</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.018</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.018</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
           <t>0.035</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>3.516</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>0.877</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0.142</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>0.463</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>0.387</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>0.243</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>0.219</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>0.015</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>0.015</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0.031</t>
-        </is>
-      </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>-0.180</t>
+          <t>-0.182</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.124</t>
         </is>
       </c>
     </row>
@@ -4337,17 +4337,17 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>0.040</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>0.903</t>
+          <t>0.800</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4367,47 +4367,47 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>0.421</t>
+          <t>0.445</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>0.362</t>
+          <t>0.385</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>0.211</t>
+          <t>0.226</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>0.210</t>
+          <t>0.219</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.003</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.198</t>
+          <t>-0.199</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>0.080</t>
+          <t>0.133</t>
         </is>
       </c>
     </row>
@@ -4439,32 +4439,32 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.033</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.035</t>
+          <t>0.070</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.030</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2.851</t>
+          <t>2.846</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0.825</t>
+          <t>0.683</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0.081</t>
+          <t>0.083</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
@@ -4484,17 +4484,17 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0.087</t>
+          <t>0.088</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.017</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4509,7 +4509,7 @@
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>0.054</t>
+          <t>0.107</t>
         </is>
       </c>
     </row>
@@ -4541,52 +4541,52 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.057</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0.049</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>3.303</t>
+          <t>3.293</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>0.880</t>
+          <t>0.773</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>0.170</t>
+          <t>0.139</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>0.401</t>
+          <t>0.385</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>0.317</t>
+          <t>0.306</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>0.190</t>
+          <t>0.179</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>0.211</t>
+          <t>0.206</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>0.010</t>
+          <t>0.012</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>0.101</t>
+          <t>0.143</t>
         </is>
       </c>
     </row>
@@ -4648,27 +4648,27 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.033</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>3.459</t>
+          <t>3.457</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>0.887</t>
+          <t>0.778</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0.178</t>
+          <t>0.125</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>0.161</t>
+          <t>0.156</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>0.042</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4713,7 +4713,7 @@
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>0.083</t>
+          <t>0.114</t>
         </is>
       </c>
     </row>
@@ -4745,17 +4745,17 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.038</t>
+          <t>0.076</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.027</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
@@ -4765,12 +4765,12 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>0.814</t>
+          <t>0.655</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0.052</t>
+          <t>0.059</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>0.077</t>
+          <t>0.082</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -4815,7 +4815,7 @@
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>0.049</t>
+          <t>0.095</t>
         </is>
       </c>
     </row>
@@ -4847,19 +4847,19 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
+          <t>0.072</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
           <t>0.030</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>0.022</t>
-        </is>
-      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>2.931</t>
@@ -4867,12 +4867,12 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0.782</t>
+          <t>0.594</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>0.068</t>
+          <t>0.081</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
@@ -4892,32 +4892,32 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0.068</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.024</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.024</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>0.048</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>-0.152</t>
+          <t>-0.151</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.085</t>
         </is>
       </c>
     </row>
@@ -4949,17 +4949,17 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.022</t>
+          <t>0.033</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.029</t>
+          <t>0.057</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0.025</t>
+          <t>0.035</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4969,12 +4969,12 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>0.854</t>
+          <t>0.731</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>0.052</t>
+          <t>0.055</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -4994,7 +4994,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>0.151</t>
+          <t>0.138</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5019,7 +5019,7 @@
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>0.049</t>
+          <t>0.096</t>
         </is>
       </c>
     </row>
@@ -5051,17 +5051,17 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.060</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0.031</t>
+          <t>0.045</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -5071,12 +5071,12 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>0.872</t>
+          <t>0.765</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0.152</t>
+          <t>0.140</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -5121,7 +5121,7 @@
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>0.066</t>
+          <t>0.136</t>
         </is>
       </c>
     </row>
@@ -5153,32 +5153,32 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>0.020</t>
+          <t>0.022</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2.920</t>
+          <t>2.916</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>0.802</t>
+          <t>0.631</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>0.097</t>
+          <t>0.078</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5213,7 +5213,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -5223,7 +5223,7 @@
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>0.039</t>
+          <t>0.084</t>
         </is>
       </c>
     </row>
@@ -5255,32 +5255,32 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.040</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.041</t>
+          <t>0.080</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0.023</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2.639</t>
+          <t>2.671</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0.803</t>
+          <t>0.612</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>0.055</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
@@ -5300,32 +5300,32 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>0.095</t>
+          <t>0.089</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>0.018</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>0.018</t>
+          <t>0.015</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>0.032</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>-0.094</t>
+          <t>-0.095</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>0.050</t>
+          <t>0.097</t>
         </is>
       </c>
     </row>
@@ -5357,77 +5357,77 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.038</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.045</t>
+          <t>0.081</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
+          <t>0.032</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>3.151</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>0.679</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.094</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0.132</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>0.015</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
           <t>0.040</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>3.122</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>0.820</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0.101</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>0.136</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>0.014</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>0.014</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>0.035</t>
-        </is>
-      </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>-0.085</t>
+          <t>-0.086</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>0.075</t>
+          <t>0.126</t>
         </is>
       </c>
     </row>
@@ -5459,69 +5459,69 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.066</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>0.043</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>3.370</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>0.775</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.155</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0.139</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
           <t>0.025</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.032</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>0.034</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>3.362</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>0.878</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0.160</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0.143</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>0.011</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>0.011</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>0.025</t>
-        </is>
-      </c>
       <c r="S50" t="inlineStr">
         <is>
           <t>-0.126</t>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>0.070</t>
+          <t>0.144</t>
         </is>
       </c>
     </row>
@@ -5561,32 +5561,32 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0.033</t>
+          <t>0.043</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.092</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.041</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>3.278</t>
+          <t>3.279</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>0.865</t>
+          <t>0.752</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>0.122</t>
+          <t>0.109</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0.163</t>
+          <t>0.152</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -5621,17 +5621,17 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>0.046</t>
+          <t>0.048</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>-0.178</t>
+          <t>-0.179</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>0.088</t>
+          <t>0.153</t>
         </is>
       </c>
     </row>
@@ -5663,32 +5663,32 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>0.026</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>0.043</t>
+          <t>0.069</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3.006</t>
+          <t>2.999</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>0.810</t>
+          <t>0.666</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>0.060</t>
+          <t>0.066</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -5708,32 +5708,32 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>0.090</t>
+          <t>0.086</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>0.006</t>
+          <t>0.005</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>0.036</t>
+          <t>0.034</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>-0.093</t>
+          <t>-0.092</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.102</t>
         </is>
       </c>
     </row>
@@ -5765,77 +5765,77 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>0.014</t>
+          <t>0.036</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>0.021</t>
+          <t>0.063</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
+          <t>0.030</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2.700</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>0.653</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.050</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0.101</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
           <t>0.018</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2.709</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0.808</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>0.032</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>0.131</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>0.019</t>
-        </is>
-      </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>0.019</t>
+          <t>0.018</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>0.064</t>
+          <t>0.073</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>-0.054</t>
+          <t>-0.053</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>0.037</t>
+          <t>0.089</t>
         </is>
       </c>
     </row>
@@ -5867,32 +5867,32 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>0.035</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.069</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
           <t>0.033</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.043</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>0.043</t>
-        </is>
-      </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>3.170</t>
+          <t>3.181</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>0.843</t>
+          <t>0.724</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>0.103</t>
+          <t>0.090</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
@@ -5912,7 +5912,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>0.116</t>
+          <t>0.117</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>0.027</t>
+          <t>0.025</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>0.086</t>
+          <t>0.131</t>
         </is>
       </c>
     </row>
@@ -5969,77 +5969,77 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>0.028</t>
+          <t>0.033</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.042</t>
+          <t>0.073</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
+          <t>0.025</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2.791</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>0.616</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0.051</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>0.074</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>0.002</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
           <t>0.026</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2.817</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>0.801</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0.050</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>0.068</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>0.001</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>0.017</t>
-        </is>
-      </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>-0.127</t>
+          <t>-0.126</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>0.053</t>
+          <t>0.094</t>
         </is>
       </c>
     </row>
